--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="C2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C3">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="C3">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>5</v>

--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="D3">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="C2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="C2">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="C2">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="C2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Seahawks/Target Depth Data.xlsx
+++ b/Base/Teams/Seahawks/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C3">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>5</v>
